--- a/biology/Biochimie/Gq_(protéine)/Gq_(protéine).xlsx
+++ b/biology/Biochimie/Gq_(protéine)/Gq_(protéine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gq_(prot%C3%A9ine)</t>
+          <t>Gq_(protéine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les protéines Gq font partie de la famille des protéines G associées à un récepteur. Il s'agit entre autres de récepteur sensible à l'acétylcholine de type muscarinique. Elles s'expriment dans les cardiomyocytes, les cellules musculaires lisses, les plaquettes sanguines et dans l'hypothalamus.
 Ces protéines sont constitués de trois sous-unités respectivement appelées α, β, γ, d'où leur nom de protéines hétérotrimétriques. Mais seule la première de ces sous-unités est capable de fixer une molécule de GDP (guanosine diphosphate) ou GTP (guanosine triphosphate).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gq_(prot%C3%A9ine)</t>
+          <t>Gq_(protéine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Fonctionnement du récepteur couplé à la protéine hétérotrimérique Gq</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La réception du ligand provoque la mise en action de la protéine Gq sous forme liée au GTP, ce qui conduit à sa translocation vers la phospholipase Cβ, qui catalyse la réaction PIP2 (voir phospholipase).
 PIP2 (Phosphatidylinositol bisphosphate) → IP3 (Inositol trisphosphate) + DAG (diacylglycérol).
